--- a/NBAcademix/media/performance_documents/SECOND__YEAR_-ACADEMIC_YEAR_2020-21.xlsx
+++ b/NBAcademix/media/performance_documents/SECOND__YEAR_-ACADEMIC_YEAR_2020-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAISHANAVI RAO P\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31675732-C225-4301-990E-9035F98285D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0101907-4307-4C42-BF6F-8613B755DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-21" sheetId="3" r:id="rId1"/>
@@ -929,10 +929,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4205,37 +4205,37 @@
       </c>
     </row>
     <row r="129" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="8"/>
+      <c r="C129" s="9"/>
       <c r="D129" s="7">
         <v>7.2</v>
       </c>
     </row>
     <row r="130" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="8"/>
+      <c r="C130" s="9"/>
       <c r="D130" s="7">
         <v>125</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="8"/>
+      <c r="C131" s="9"/>
       <c r="D131" s="7">
         <v>125</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="8"/>
+      <c r="C132" s="9"/>
       <c r="D132" s="7">
         <v>7.2</v>
       </c>

--- a/NBAcademix/media/performance_documents/SECOND__YEAR_-ACADEMIC_YEAR_2020-21.xlsx
+++ b/NBAcademix/media/performance_documents/SECOND__YEAR_-ACADEMIC_YEAR_2020-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAISHANAVI RAO P\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0101907-4307-4C42-BF6F-8613B755DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83272DA2-C135-4880-AD9A-75953B2EF773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3276" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="258">
   <si>
     <t>SL.NO</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>POOJA</t>
-  </si>
-  <si>
-    <t>Mean of percentage of all successful students(x)</t>
-  </si>
-  <si>
-    <t>Total number of sucessful students(y)</t>
-  </si>
-  <si>
-    <t>Total no.of students appeared in the examination</t>
-  </si>
-  <si>
-    <t>Academic Performance Index(API)=X*(Y/Z)</t>
   </si>
   <si>
     <t>SHRAVYA</t>
@@ -1151,7 +1139,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+      <selection activeCell="A127" sqref="A127:G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1178,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1192,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -1216,10 +1204,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>2.58</v>
@@ -1240,10 +1228,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>4.33</v>
@@ -1264,10 +1252,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>7.42</v>
@@ -1288,10 +1276,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>6.46</v>
@@ -1312,10 +1300,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>9</v>
@@ -1336,10 +1324,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>7.58</v>
@@ -1360,10 +1348,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>7.83</v>
@@ -1384,10 +1372,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>7.38</v>
@@ -1408,10 +1396,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>7.71</v>
@@ -1432,10 +1420,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>8.4600000000000009</v>
@@ -1456,10 +1444,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>8.67</v>
@@ -1480,10 +1468,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>8.75</v>
@@ -1504,10 +1492,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2">
         <v>6.75</v>
@@ -1528,10 +1516,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2">
         <v>8</v>
@@ -1552,10 +1540,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2">
         <v>8.1300000000000008</v>
@@ -1576,10 +1564,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2">
         <v>5.67</v>
@@ -1600,10 +1588,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2">
         <v>7.58</v>
@@ -1624,10 +1612,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2">
         <v>7.42</v>
@@ -1648,10 +1636,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2">
         <v>7.79</v>
@@ -1672,10 +1660,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
         <v>4.83</v>
@@ -1696,10 +1684,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2">
         <v>6.04</v>
@@ -1720,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2">
         <v>6.46</v>
@@ -1744,10 +1732,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2">
         <v>6.42</v>
@@ -1768,10 +1756,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2">
         <v>4.25</v>
@@ -1792,10 +1780,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2">
         <v>5.54</v>
@@ -1816,10 +1804,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2">
         <v>7</v>
@@ -1840,10 +1828,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2">
         <v>7.63</v>
@@ -1864,10 +1852,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2">
         <v>6.42</v>
@@ -1888,10 +1876,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2">
         <v>4.5</v>
@@ -1912,10 +1900,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2">
         <v>2.25</v>
@@ -1936,10 +1924,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2">
         <v>6.79</v>
@@ -1960,10 +1948,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2">
         <v>7.54</v>
@@ -1984,10 +1972,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2">
         <v>7.54</v>
@@ -2008,10 +1996,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2">
         <v>8.4600000000000009</v>
@@ -2032,10 +2020,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2">
         <v>6.08</v>
@@ -2056,10 +2044,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2">
         <v>6.17</v>
@@ -2080,10 +2068,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2">
         <v>8.83</v>
@@ -2104,10 +2092,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2">
         <v>8.3800000000000008</v>
@@ -2128,10 +2116,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2">
         <v>7.5</v>
@@ -2152,10 +2140,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D42" s="2">
         <v>7.96</v>
@@ -2176,10 +2164,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D43" s="2">
         <v>9.17</v>
@@ -2200,10 +2188,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44" s="2">
         <v>7.71</v>
@@ -2224,10 +2212,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D45" s="2">
         <v>4.75</v>
@@ -2248,10 +2236,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2">
         <v>6.88</v>
@@ -2272,10 +2260,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2">
         <v>7.63</v>
@@ -2296,10 +2284,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D48" s="2">
         <v>8.2899999999999991</v>
@@ -2320,10 +2308,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2">
         <v>8.2899999999999991</v>
@@ -2344,10 +2332,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D50" s="2">
         <v>6.79</v>
@@ -2368,10 +2356,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D51" s="2">
         <v>5.71</v>
@@ -2392,10 +2380,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D52" s="2">
         <v>8.33</v>
@@ -2416,10 +2404,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D53" s="2">
         <v>7.83</v>
@@ -2440,10 +2428,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D54" s="2">
         <v>7.08</v>
@@ -2464,10 +2452,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D55" s="2">
         <v>7.88</v>
@@ -2488,10 +2476,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D56" s="2">
         <v>6.75</v>
@@ -2512,10 +2500,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D57" s="2">
         <v>7.29</v>
@@ -2536,10 +2524,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D58" s="2">
         <v>6.88</v>
@@ -2560,10 +2548,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D59" s="2">
         <v>7</v>
@@ -2584,10 +2572,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D60" s="2">
         <v>7.58</v>
@@ -2608,10 +2596,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2">
         <v>7.5</v>
@@ -2632,10 +2620,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D62" s="2">
         <v>7.42</v>
@@ -2656,7 +2644,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>7</v>
@@ -2680,10 +2668,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D64" s="2">
         <v>3.75</v>
@@ -2704,10 +2692,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D65" s="2">
         <v>4.96</v>
@@ -2728,10 +2716,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D66" s="2">
         <v>6.38</v>
@@ -2752,10 +2740,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D67" s="2">
         <v>8.33</v>
@@ -2776,10 +2764,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2">
         <v>8.08</v>
@@ -2800,10 +2788,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D69" s="2">
         <v>7.83</v>
@@ -2824,10 +2812,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D70" s="2">
         <v>5.75</v>
@@ -2848,10 +2836,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2">
         <v>7.13</v>
@@ -2872,10 +2860,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D72" s="2">
         <v>6.46</v>
@@ -2896,10 +2884,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D73" s="2">
         <v>6.88</v>
@@ -2920,10 +2908,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2">
         <v>7.88</v>
@@ -2944,10 +2932,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2">
         <v>8.3800000000000008</v>
@@ -2968,10 +2956,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2">
         <v>5.54</v>
@@ -2992,10 +2980,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D77" s="2">
         <v>6.5</v>
@@ -3016,10 +3004,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D78" s="2">
         <v>7.92</v>
@@ -3040,10 +3028,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D79" s="2">
         <v>7.04</v>
@@ -3064,10 +3052,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D80" s="2">
         <v>7.21</v>
@@ -3088,10 +3076,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D81" s="2">
         <v>8.5399999999999991</v>
@@ -3112,10 +3100,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D82" s="2">
         <v>5.46</v>
@@ -3136,10 +3124,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D83" s="2">
         <v>7.08</v>
@@ -3160,10 +3148,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D84" s="2">
         <v>6.67</v>
@@ -3184,10 +3172,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D85" s="2">
         <v>5.13</v>
@@ -3208,10 +3196,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D86" s="2">
         <v>8.42</v>
@@ -3232,10 +3220,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2">
         <v>7.67</v>
@@ -3256,10 +3244,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D88" s="2">
         <v>7.75</v>
@@ -3280,10 +3268,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D89" s="2">
         <v>8.2100000000000009</v>
@@ -3304,10 +3292,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D90" s="2">
         <v>6.13</v>
@@ -3328,10 +3316,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D91" s="2">
         <v>8.25</v>
@@ -3352,10 +3340,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D92" s="2">
         <v>7.29</v>
@@ -3376,10 +3364,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D93" s="2">
         <v>6.92</v>
@@ -3400,10 +3388,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D94" s="2">
         <v>7.96</v>
@@ -3424,10 +3412,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D95" s="2">
         <v>8.7100000000000009</v>
@@ -3448,10 +3436,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D96" s="2">
         <v>5.96</v>
@@ -3472,10 +3460,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D97" s="2">
         <v>7.21</v>
@@ -3496,10 +3484,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D98" s="2">
         <v>6.71</v>
@@ -3520,10 +3508,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D99" s="2">
         <v>7.96</v>
@@ -3544,10 +3532,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D100" s="2">
         <v>7.54</v>
@@ -3568,10 +3556,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D101" s="2">
         <v>7.42</v>
@@ -3592,10 +3580,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D102" s="2">
         <v>7.04</v>
@@ -3616,10 +3604,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D103" s="2">
         <v>7.71</v>
@@ -3640,10 +3628,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D104" s="2">
         <v>5.7916666670000003</v>
@@ -3664,10 +3652,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D105" s="2">
         <v>6.6666666670000003</v>
@@ -3688,10 +3676,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D106" s="2">
         <v>8.5833333330000006</v>
@@ -3712,10 +3700,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D107" s="2">
         <v>8.7916666669999994</v>
@@ -3736,10 +3724,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D108" s="2">
         <v>2.2083333330000001</v>
@@ -3760,10 +3748,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D109" s="2">
         <v>8.875</v>
@@ -3784,10 +3772,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D110" s="2">
         <v>6.875</v>
@@ -3808,10 +3796,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D111" s="2">
         <v>8.2916666669999994</v>
@@ -3832,10 +3820,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D112" s="2">
         <v>8.3333333330000006</v>
@@ -3856,10 +3844,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D113" s="2">
         <v>6.7083333329999997</v>
@@ -3880,10 +3868,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D114" s="2">
         <v>7.0416666670000003</v>
@@ -3904,10 +3892,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D115" s="2">
         <v>6.9583333329999997</v>
@@ -3928,10 +3916,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D116" s="2">
         <v>7.375</v>
@@ -3952,10 +3940,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D117" s="2">
         <v>4.5</v>
@@ -3976,10 +3964,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D118" s="2">
         <v>9.1666666669999994</v>
@@ -4000,10 +3988,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D119" s="2">
         <v>8.5416666669999994</v>
@@ -4024,10 +4012,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D120" s="2">
         <v>2.0833333330000001</v>
@@ -4048,10 +4036,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D121" s="2">
         <v>7</v>
@@ -4072,10 +4060,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D122" s="2">
         <v>5.625</v>
@@ -4096,10 +4084,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D123" s="2">
         <v>2.5</v>
@@ -4120,10 +4108,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D124" s="2">
         <v>0</v>
@@ -4144,10 +4132,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D125" s="2">
         <v>1.5</v>
@@ -4168,10 +4156,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D126" s="2">
         <v>1.3333333329999999</v>
@@ -4194,51 +4182,30 @@
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" ht="14.25" customHeight="1">
-      <c r="F128" s="5">
-        <f>SUM(F2:F126)/125</f>
-        <v>7.1712800000080001</v>
-      </c>
+      <c r="F128" s="5"/>
     </row>
     <row r="129" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B129" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B129" s="8"/>
       <c r="C129" s="9"/>
-      <c r="D129" s="7">
-        <v>7.2</v>
-      </c>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B130" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B130" s="8"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="7">
-        <v>125</v>
-      </c>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B131" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="B131" s="8"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="7">
-        <v>125</v>
-      </c>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B132" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B132" s="8"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="7">
-        <v>7.2</v>
-      </c>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="2:4" ht="14.25" customHeight="1"/>
     <row r="134" spans="2:4" ht="14.25" customHeight="1"/>
